--- a/Destination_files/Destination template.xlsx
+++ b/Destination_files/Destination template.xlsx
@@ -1217,13 +1217,27 @@
       <c r="X9" t="n">
         <v>46.9</v>
       </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>40.69377290270462</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>37.27440216064453</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34.44002254486084</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>38.78667278289795</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>44.37174045562744</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>45.88587833404541</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.5787136787617623</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1294,13 +1308,27 @@
       <c r="X10" t="n">
         <v>38.1</v>
       </c>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
+      <c r="Y10" t="n">
+        <v>35.20119748295132</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>35.65838146209717</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>27.05215200424194</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>33.61560161590576</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>32.67549991607666</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>33.68657119750976</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.2646144348585163</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
